--- a/output/StructureDefinition-newpatients.xlsx
+++ b/output/StructureDefinition-newpatients.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory-query/StructureDefinition/newpatients</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/newpatients</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T11:05:58-05:00</t>
+    <t>2021-12-17T13:53:37-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -364,7 +364,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory-query/ValueSet/AcceptingPatientsVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/AcceptingPatientsVS</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -380,7 +380,7 @@
     <t>From Network</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory-query/StructureDefinition/NatlDir-Network)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDir-Network)
 </t>
   </si>
   <si>
@@ -752,7 +752,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.9765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.75" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-newpatients.xlsx
+++ b/output/StructureDefinition-newpatients.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T13:53:37-05:00</t>
+    <t>2022-01-06T09:30:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -380,7 +380,7 @@
     <t>From Network</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDir-Network)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Network)
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-newpatients.xlsx
+++ b/output/StructureDefinition-newpatients.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-06T09:30:55-05:00</t>
+    <t>2022-01-07T08:48:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-newpatients.xlsx
+++ b/output/StructureDefinition-newpatients.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-07T08:48:00-05:00</t>
+    <t>2022-01-10T11:07:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-newpatients.xlsx
+++ b/output/StructureDefinition-newpatients.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T11:07:52-05:00</t>
+    <t>2022-01-10T14:04:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-newpatients.xlsx
+++ b/output/StructureDefinition-newpatients.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T14:04:03-05:00</t>
+    <t>2022-01-11T11:42:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-newpatients.xlsx
+++ b/output/StructureDefinition-newpatients.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T11:42:07-05:00</t>
+    <t>2022-01-11T11:53:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-newpatients.xlsx
+++ b/output/StructureDefinition-newpatients.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T11:53:21-05:00</t>
+    <t>2022-02-03T09:58:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-newpatients.xlsx
+++ b/output/StructureDefinition-newpatients.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T09:58:18-05:00</t>
+    <t>2022-02-03T10:48:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-newpatients.xlsx
+++ b/output/StructureDefinition-newpatients.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T10:48:00-05:00</t>
+    <t>2022-03-09T14:32:46-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-newpatients.xlsx
+++ b/output/StructureDefinition-newpatients.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-09T14:32:46-05:00</t>
+    <t>2022-03-16T09:57:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-newpatients.xlsx
+++ b/output/StructureDefinition-newpatients.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16T09:57:32-04:00</t>
+    <t>2022-03-25T16:16:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-newpatients.xlsx
+++ b/output/StructureDefinition-newpatients.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T16:16:05-04:00</t>
+    <t>2022-03-25T16:25:37-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-newpatients.xlsx
+++ b/output/StructureDefinition-newpatients.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T16:25:37-04:00</t>
+    <t>2022-04-01T12:43:46-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-newpatients.xlsx
+++ b/output/StructureDefinition-newpatients.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-01T12:43:46-04:00</t>
+    <t>2022-04-05T10:32:14-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-newpatients.xlsx
+++ b/output/StructureDefinition-newpatients.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T10:32:14-04:00</t>
+    <t>2022-04-05T18:50:47-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-newpatients.xlsx
+++ b/output/StructureDefinition-newpatients.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T18:50:47-04:00</t>
+    <t>2022-04-08T11:43:46-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-newpatients.xlsx
+++ b/output/StructureDefinition-newpatients.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T11:43:46-04:00</t>
+    <t>2022-04-20T16:26:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-newpatients.xlsx
+++ b/output/StructureDefinition-newpatients.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T16:26:55-04:00</t>
+    <t>2022-05-25T13:59:19-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-newpatients.xlsx
+++ b/output/StructureDefinition-newpatients.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T13:59:19-04:00</t>
+    <t>2022-06-03T15:19:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-newpatients.xlsx
+++ b/output/StructureDefinition-newpatients.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-03T15:19:55-04:00</t>
+    <t>2022-07-08T11:33:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-newpatients.xlsx
+++ b/output/StructureDefinition-newpatients.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T11:33:11-04:00</t>
+    <t>2022-07-12T12:55:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-newpatients.xlsx
+++ b/output/StructureDefinition-newpatients.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T12:55:11-04:00</t>
+    <t>2022-07-13T15:48:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -728,17 +728,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="28.2734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="28.27734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="16.9140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="7.68359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="36.40625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="36.41015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -747,23 +747,23 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="66.75" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.75390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-newpatients.xlsx
+++ b/output/StructureDefinition-newpatients.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T15:48:20-04:00</t>
+    <t>2022-07-14T18:44:03-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-newpatients.xlsx
+++ b/output/StructureDefinition-newpatients.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T18:44:03-04:00</t>
+    <t>2022-07-21T17:51:33-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-newpatients.xlsx
+++ b/output/StructureDefinition-newpatients.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>1.0.0-ballot1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-21T17:51:33-04:00</t>
+    <t>2022-07-24T13:15:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-newpatients.xlsx
+++ b/output/StructureDefinition-newpatients.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-24T13:15:49-04:00</t>
+    <t>2022-07-25T09:59:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
